--- a/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
+++ b/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF91053\Documents\Gavin_OBS\Gavin_OBS\英语\Alphabet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1342D730-26DE-4A21-981B-6F91010DE0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24164A51-F2F2-48F5-BB89-D6E79FE3D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="442">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +659,1150 @@
   </si>
   <si>
     <t>火腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>igloo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice cream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice skates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>islabd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸢尾花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ivy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常春藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁，熨斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measurement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 foot = 12 inches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iguana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜥蜴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓶子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷气飞机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jump rope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>denim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fabric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛仔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>织物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jellyfish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jewelry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珠宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>juggler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变戏法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风筝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kayak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水壶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kangaroo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kitten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koala</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lollipop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒棒糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leaf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladybug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓢虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lemon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羔羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lobster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘴唇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木、木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mitten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motorcycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩托车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音符，笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>octogon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oboe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双簧管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椭圆形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>running tracks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oatmeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oar/paddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫头鹰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>octopus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ox/oxen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pencil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pail/bucket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pizza</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馅饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question mark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in a quart sized bottle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹌鹑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quilt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quadruplets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四胞胎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rainbow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耙子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhinoceros</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犀牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rhino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浣熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swimming pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sailboat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>six</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豹，密封</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunflower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slippers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strawberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tickle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗弄，抓痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚趾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟾蜍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tooth/teeth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trombone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trumpet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tractor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拉机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicorn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制服，均匀整齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unicycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独轮车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utensils</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器皿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勺子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ugly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ukulele</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vampire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vegetables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小提琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>van</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacuum cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸尘器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wagon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车厢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watermelon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲸鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wasp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>walrus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07395BF7-5585-43CF-BAEE-437F1BEF6844}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="I140" sqref="I140"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2147,4 +3293,2082 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B57DDCA-08A7-4139-B0B6-BC4CD19E51C2}">
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="B46" t="s">
+        <v>219</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>221</v>
+      </c>
+      <c r="C53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
+        <v>229</v>
+      </c>
+      <c r="C58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" t="s">
+        <v>237</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" t="s">
+        <v>245</v>
+      </c>
+      <c r="C75" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>253</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="6"/>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6"/>
+      <c r="B90" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" t="s">
+        <v>264</v>
+      </c>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" t="s">
+        <v>268</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="101" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="6"/>
+      <c r="B103" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="6"/>
+      <c r="B104" t="s">
+        <v>274</v>
+      </c>
+      <c r="C104" t="s">
+        <v>275</v>
+      </c>
+      <c r="D104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="6"/>
+      <c r="B105" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" s="6"/>
+      <c r="E105" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" t="s">
+        <v>280</v>
+      </c>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" t="s">
+        <v>281</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" t="s">
+        <v>282</v>
+      </c>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" t="s">
+        <v>285</v>
+      </c>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" t="s">
+        <v>287</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" t="s">
+        <v>289</v>
+      </c>
+      <c r="C112" t="s">
+        <v>290</v>
+      </c>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" t="s">
+        <v>292</v>
+      </c>
+      <c r="C113" t="s">
+        <v>291</v>
+      </c>
+      <c r="D113" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="D86:D96"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A113"/>
+    <mergeCell ref="D102:D113"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="D70:D80"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="D52:D64"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="D36:D46"/>
+    <mergeCell ref="A36:A46"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="D2:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C995DC-257E-4F84-9AEA-BCFCD25850D8}">
+  <dimension ref="A1:F135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123:F135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" t="s">
+        <v>312</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" t="s">
+        <v>324</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
+        <v>325</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" t="s">
+        <v>329</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>330</v>
+      </c>
+      <c r="C41" t="s">
+        <v>331</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" t="s">
+        <v>335</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" t="s">
+        <v>336</v>
+      </c>
+      <c r="C44" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" t="s">
+        <v>340</v>
+      </c>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
+        <v>343</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" t="s">
+        <v>344</v>
+      </c>
+      <c r="C55" t="s">
+        <v>345</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
+        <v>346</v>
+      </c>
+      <c r="C56" t="s">
+        <v>347</v>
+      </c>
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
+        <v>353</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" t="s">
+        <v>355</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" t="s">
+        <v>356</v>
+      </c>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" t="s">
+        <v>357</v>
+      </c>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" t="s">
+        <v>359</v>
+      </c>
+      <c r="C70" t="s">
+        <v>360</v>
+      </c>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" t="s">
+        <v>362</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" t="s">
+        <v>363</v>
+      </c>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" t="s">
+        <v>365</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" t="s">
+        <v>366</v>
+      </c>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6"/>
+      <c r="B76" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" t="s">
+        <v>369</v>
+      </c>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" t="s">
+        <v>372</v>
+      </c>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" t="s">
+        <v>374</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" t="s">
+        <v>375</v>
+      </c>
+      <c r="C81" t="s">
+        <v>376</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" t="s">
+        <v>377</v>
+      </c>
+      <c r="C82" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="6"/>
+      <c r="B83" t="s">
+        <v>379</v>
+      </c>
+      <c r="C83" t="s">
+        <v>380</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" t="s">
+        <v>381</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6"/>
+      <c r="B91" t="s">
+        <v>386</v>
+      </c>
+      <c r="C91" t="s">
+        <v>387</v>
+      </c>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6"/>
+      <c r="B92" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6"/>
+      <c r="B93" t="s">
+        <v>388</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6"/>
+      <c r="B94" t="s">
+        <v>389</v>
+      </c>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6"/>
+      <c r="B95" t="s">
+        <v>390</v>
+      </c>
+      <c r="C95" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6"/>
+      <c r="B96" t="s">
+        <v>392</v>
+      </c>
+      <c r="C96" t="s">
+        <v>393</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6"/>
+      <c r="B97" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6"/>
+      <c r="B98" t="s">
+        <v>399</v>
+      </c>
+      <c r="C98" t="s">
+        <v>400</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" t="s">
+        <v>397</v>
+      </c>
+      <c r="F98" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="6"/>
+      <c r="B99" t="s">
+        <v>401</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6"/>
+      <c r="B100" t="s">
+        <v>402</v>
+      </c>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" t="s">
+        <v>404</v>
+      </c>
+      <c r="C107" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" t="s">
+        <v>406</v>
+      </c>
+      <c r="C108" t="s">
+        <v>407</v>
+      </c>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" t="s">
+        <v>408</v>
+      </c>
+      <c r="C109" t="s">
+        <v>409</v>
+      </c>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" t="s">
+        <v>410</v>
+      </c>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" t="s">
+        <v>411</v>
+      </c>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6"/>
+      <c r="B112" t="s">
+        <v>412</v>
+      </c>
+      <c r="C112" t="s">
+        <v>413</v>
+      </c>
+      <c r="D112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6"/>
+      <c r="B113" t="s">
+        <v>414</v>
+      </c>
+      <c r="C113" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6"/>
+      <c r="B114" t="s">
+        <v>416</v>
+      </c>
+      <c r="C114" t="s">
+        <v>417</v>
+      </c>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="6"/>
+      <c r="B115" t="s">
+        <v>418</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" t="s">
+        <v>420</v>
+      </c>
+      <c r="F115" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6"/>
+      <c r="B116" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="6"/>
+      <c r="B117" t="s">
+        <v>423</v>
+      </c>
+      <c r="C117" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="123" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" t="s">
+        <v>426</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" t="s">
+        <v>427</v>
+      </c>
+      <c r="C126" t="s">
+        <v>428</v>
+      </c>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" t="s">
+        <v>429</v>
+      </c>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" t="s">
+        <v>430</v>
+      </c>
+      <c r="C128" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128" s="6"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="6"/>
+      <c r="B129" t="s">
+        <v>432</v>
+      </c>
+      <c r="C129" t="s">
+        <v>433</v>
+      </c>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" t="s">
+        <v>434</v>
+      </c>
+      <c r="C130" t="s">
+        <v>435</v>
+      </c>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" t="s">
+        <v>436</v>
+      </c>
+      <c r="C131" t="s">
+        <v>437</v>
+      </c>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" t="s">
+        <v>438</v>
+      </c>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A133" s="6"/>
+      <c r="B133" t="s">
+        <v>439</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" t="s">
+        <v>440</v>
+      </c>
+      <c r="C134" t="s">
+        <v>258</v>
+      </c>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" t="s">
+        <v>441</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A124:A135"/>
+    <mergeCell ref="D124:D135"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="D90:D100"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A106:A117"/>
+    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:A84"/>
+    <mergeCell ref="D69:D84"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="D34:D45"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:A63"/>
+    <mergeCell ref="D51:D63"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
+++ b/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF91053\Documents\Gavin_OBS\Gavin_OBS\英语\Alphabet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24164A51-F2F2-48F5-BB89-D6E79FE3D373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B94A4F-7870-44B4-8A7C-139035FDD17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="545">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1803,6 +1805,416 @@
   </si>
   <si>
     <t>wall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xylophone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x-ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yo-yo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yarn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呵欠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yacht</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yogurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牦牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z词汇表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zebra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zucchini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zigzag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之字形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakfast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pancake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syrup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waffle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖浆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夫饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flavored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枫叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调味的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waffle iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倾倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orange juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocolate milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挤压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搅拌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grapefruit juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西柚汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cranberry juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔓越莓汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apricot juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mango juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pineapple juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot chocolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrambled eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frying pan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fried eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggs sunny side up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poached eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷包蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boiled eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard-boiled eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soft-boiled eggs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold cereal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">milk fermented with bacteria </t>
+  </si>
+  <si>
+    <t>细菌发酵的牛奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raspberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法式吐司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>French toast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dip bread into an egg mixture</t>
+  </si>
+  <si>
+    <t>面包浸入蛋液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>griddle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电饼铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>butter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bacon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cut into long thin strips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细长条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sausage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ground meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with savory spices mixed in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸味调味品混入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1883,7 +2295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1897,6 +2309,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2228,17 +2643,17 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2258,7 +2673,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -2267,13 +2682,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2282,13 +2697,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -2297,7 +2712,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2721,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -2315,13 +2730,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -2345,17 +2760,17 @@
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2375,13 +2790,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -2390,19 +2805,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -2411,13 +2826,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -2426,44 +2841,44 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
+      <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -2472,7 +2887,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
+      <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -2481,13 +2896,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A34" s="7"/>
       <c r="B34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>42</v>
       </c>
@@ -2499,17 +2914,17 @@
       <c r="A37" s="3"/>
     </row>
     <row r="40" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2529,7 +2944,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>44</v>
       </c>
@@ -2541,7 +2956,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -2550,7 +2965,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -2562,7 +2977,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>52</v>
       </c>
@@ -2571,44 +2986,44 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
+      <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
+      <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
+      <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
+      <c r="A50" s="7"/>
       <c r="B50" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
+      <c r="A51" s="7"/>
       <c r="B51" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>60</v>
       </c>
@@ -2620,13 +3035,13 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>64</v>
       </c>
@@ -2635,7 +3050,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>66</v>
       </c>
@@ -2653,17 +3068,17 @@
       <c r="A58" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -2683,13 +3098,13 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>70</v>
       </c>
@@ -2698,7 +3113,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
+      <c r="A65" s="7"/>
       <c r="B65" t="s">
         <v>72</v>
       </c>
@@ -2707,13 +3122,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="6"/>
+      <c r="A66" s="7"/>
       <c r="B66" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
+      <c r="A67" s="7"/>
       <c r="B67" t="s">
         <v>75</v>
       </c>
@@ -2722,44 +3137,44 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
+      <c r="A68" s="7"/>
       <c r="B68" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
+      <c r="A69" s="7"/>
       <c r="B69" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
+      <c r="A70" s="7"/>
       <c r="B70" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
         <v>83</v>
       </c>
@@ -2780,17 +3195,17 @@
       <c r="A76" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2810,13 +3225,13 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
+      <c r="A81" s="7"/>
       <c r="B81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
       <c r="B82" t="s">
         <v>89</v>
       </c>
@@ -2825,7 +3240,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" t="s">
         <v>91</v>
       </c>
@@ -2834,13 +3249,13 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
       <c r="B84" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
+      <c r="A85" s="7"/>
       <c r="B85" t="s">
         <v>94</v>
       </c>
@@ -2849,19 +3264,19 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
+      <c r="A86" s="7"/>
       <c r="B86" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
+      <c r="A87" s="7"/>
       <c r="B87" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
+      <c r="A88" s="7"/>
       <c r="B88" t="s">
         <v>98</v>
       </c>
@@ -2870,20 +3285,20 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89" s="2"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" t="s">
         <v>102</v>
       </c>
@@ -2892,20 +3307,20 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
     </row>
     <row r="98" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -2914,7 +3329,7 @@
       <c r="C99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -2925,111 +3340,111 @@
       </c>
     </row>
     <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6"/>
+      <c r="A100" s="7"/>
       <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
+      <c r="A101" s="7"/>
       <c r="B101" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6"/>
+      <c r="A102" s="7"/>
       <c r="B102" t="s">
         <v>107</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
+      <c r="A103" s="7"/>
       <c r="B103" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
+      <c r="A104" s="7"/>
       <c r="B104" t="s">
         <v>110</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
+      <c r="A105" s="7"/>
       <c r="B105" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
+      <c r="A106" s="7"/>
       <c r="B106" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="6"/>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" t="s">
         <v>114</v>
       </c>
       <c r="C107" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
+      <c r="A108" s="7"/>
       <c r="B108" t="s">
         <v>116</v>
       </c>
       <c r="C108" s="2"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
+      <c r="A109" s="7"/>
       <c r="B109" t="s">
         <v>117</v>
       </c>
       <c r="C109" t="s">
         <v>118</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
+      <c r="A110" s="7"/>
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="D111" s="4"/>
     </row>
     <row r="115" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="5"/>
-      <c r="E115" s="5"/>
-      <c r="F115" s="5"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -3038,7 +3453,7 @@
       <c r="C116" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -3049,118 +3464,118 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
+      <c r="A117" s="7"/>
       <c r="B117" t="s">
         <v>121</v>
       </c>
       <c r="C117" t="s">
         <v>122</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
+      <c r="A118" s="7"/>
       <c r="B118" t="s">
         <v>123</v>
       </c>
       <c r="C118" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="7"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
+      <c r="A119" s="7"/>
       <c r="B119" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
+      <c r="A120" s="7"/>
       <c r="B120" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="6"/>
+      <c r="D120" s="7"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="6"/>
+      <c r="A121" s="7"/>
       <c r="B121" t="s">
         <v>127</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="7"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="6"/>
+      <c r="A122" s="7"/>
       <c r="B122" t="s">
         <v>128</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
       </c>
-      <c r="D122" s="6"/>
+      <c r="D122" s="7"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
+      <c r="A123" s="7"/>
       <c r="B123" t="s">
         <v>130</v>
       </c>
       <c r="C123" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="7"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
+      <c r="A124" s="7"/>
       <c r="B124" t="s">
         <v>132</v>
       </c>
       <c r="C124" t="s">
         <v>133</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="7"/>
     </row>
     <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
+      <c r="A125" s="7"/>
       <c r="B125" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
+      <c r="A126" s="7"/>
       <c r="B126" t="s">
         <v>136</v>
       </c>
       <c r="C126" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
+      <c r="A127" s="7"/>
       <c r="B127" t="s">
         <v>138</v>
       </c>
       <c r="C127" t="s">
         <v>139</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="132" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-      <c r="F132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -3169,7 +3584,7 @@
       <c r="C133" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -3180,89 +3595,89 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
+      <c r="A134" s="7"/>
       <c r="B134" t="s">
         <v>141</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
+      <c r="A135" s="7"/>
       <c r="B135" t="s">
         <v>142</v>
       </c>
-      <c r="D135" s="6"/>
+      <c r="D135" s="7"/>
     </row>
     <row r="136" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
+      <c r="A136" s="7"/>
       <c r="B136" t="s">
         <v>143</v>
       </c>
       <c r="C136" t="s">
         <v>144</v>
       </c>
-      <c r="D136" s="6"/>
+      <c r="D136" s="7"/>
     </row>
     <row r="137" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
+      <c r="A137" s="7"/>
       <c r="B137" t="s">
         <v>145</v>
       </c>
       <c r="C137" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="6"/>
+      <c r="D137" s="7"/>
     </row>
     <row r="138" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
+      <c r="A138" s="7"/>
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="7"/>
     </row>
     <row r="139" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
+      <c r="A139" s="7"/>
       <c r="B139" t="s">
         <v>148</v>
       </c>
       <c r="C139" t="s">
         <v>149</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="7"/>
     </row>
     <row r="140" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
+      <c r="A140" s="7"/>
       <c r="B140" t="s">
         <v>150</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="7"/>
     </row>
     <row r="141" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
+      <c r="A141" s="7"/>
       <c r="B141" t="s">
         <v>151</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="7"/>
     </row>
     <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
+      <c r="A142" s="7"/>
       <c r="B142" t="s">
         <v>153</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="7"/>
     </row>
     <row r="143" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
+      <c r="A143" s="7"/>
       <c r="B143" t="s">
         <v>154</v>
       </c>
       <c r="C143" t="s">
         <v>155</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="7"/>
     </row>
     <row r="144" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
@@ -3306,17 +3721,17 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3325,7 +3740,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -3336,131 +3751,131 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>171</v>
       </c>
       <c r="C12" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>173</v>
       </c>
       <c r="C13" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3469,7 +3884,7 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3480,52 +3895,52 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>180</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>182</v>
       </c>
       <c r="C23" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>184</v>
       </c>
       <c r="C24" t="s">
         <v>185</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>186</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7"/>
       <c r="E26" t="s">
         <v>188</v>
       </c>
@@ -3534,14 +3949,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="7"/>
       <c r="B27" t="s">
         <v>192</v>
       </c>
       <c r="C27" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
       <c r="E27" t="s">
         <v>189</v>
       </c>
@@ -3550,14 +3965,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
+      <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>194</v>
       </c>
       <c r="C28" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7"/>
       <c r="E28" t="s">
         <v>196</v>
       </c>
@@ -3566,54 +3981,54 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+      <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="7"/>
       <c r="E29" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>201</v>
       </c>
       <c r="C30" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>203</v>
       </c>
       <c r="C31" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
     </row>
     <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3622,7 +4037,7 @@
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3633,104 +4048,104 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>207</v>
       </c>
       <c r="C38" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>210</v>
       </c>
       <c r="C40" t="s">
         <v>211</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>212</v>
       </c>
       <c r="C41" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>215</v>
       </c>
       <c r="C43" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>218</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
+      <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="D47" s="4"/>
     </row>
     <row r="51" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -3739,7 +4154,7 @@
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -3750,122 +4165,122 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>221</v>
       </c>
       <c r="C53" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>224</v>
       </c>
       <c r="C55" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>226</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" t="s">
         <v>227</v>
       </c>
       <c r="C57" t="s">
         <v>228</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
+      <c r="A58" s="7"/>
       <c r="B58" t="s">
         <v>229</v>
       </c>
       <c r="C58" t="s">
         <v>230</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" t="s">
         <v>231</v>
       </c>
       <c r="C59" t="s">
         <v>232</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
+      <c r="A60" s="7"/>
       <c r="B60" t="s">
         <v>233</v>
       </c>
       <c r="C60" t="s">
         <v>234</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
+      <c r="A61" s="7"/>
       <c r="B61" t="s">
         <v>235</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" t="s">
         <v>237</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>238</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="6"/>
+      <c r="A64" s="7"/>
       <c r="B64" t="s">
         <v>239</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="69" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -3874,7 +4289,7 @@
       <c r="C70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3885,84 +4300,84 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
         <v>241</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
         <v>242</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>243</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
         <v>244</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
         <v>245</v>
       </c>
       <c r="C75" t="s">
         <v>246</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
+      <c r="A76" s="7"/>
       <c r="B76" t="s">
         <v>247</v>
       </c>
       <c r="C76" t="s">
         <v>248</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" t="s">
         <v>249</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
+      <c r="A78" s="7"/>
       <c r="B78" t="s">
         <v>250</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
+      <c r="A79" s="7"/>
       <c r="B79" t="s">
         <v>251</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
+      <c r="A80" s="7"/>
       <c r="B80" t="s">
         <v>252</v>
       </c>
       <c r="C80" t="s">
         <v>253</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
@@ -3973,17 +4388,17 @@
       <c r="D82" s="4"/>
     </row>
     <row r="85" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3992,7 +4407,7 @@
       <c r="C86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -4003,105 +4418,105 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
+      <c r="A87" s="7"/>
       <c r="B87" t="s">
         <v>255</v>
       </c>
-      <c r="D87" s="6"/>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
+      <c r="A88" s="7"/>
       <c r="B88" t="s">
         <v>256</v>
       </c>
       <c r="C88" t="s">
         <v>259</v>
       </c>
-      <c r="D88" s="6"/>
+      <c r="D88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
+      <c r="A89" s="7"/>
       <c r="B89" t="s">
         <v>257</v>
       </c>
       <c r="C89" t="s">
         <v>258</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
+      <c r="A90" s="7"/>
       <c r="B90" t="s">
         <v>260</v>
       </c>
-      <c r="D90" s="6"/>
+      <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" t="s">
         <v>261</v>
       </c>
       <c r="C91" t="s">
         <v>262</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" t="s">
         <v>263</v>
       </c>
       <c r="C92" t="s">
         <v>264</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
+      <c r="A93" s="7"/>
       <c r="B93" t="s">
         <v>265</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
+      <c r="A94" s="7"/>
       <c r="B94" t="s">
         <v>266</v>
       </c>
       <c r="C94" t="s">
         <v>267</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" t="s">
         <v>268</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
+      <c r="A96" s="7"/>
       <c r="B96" t="s">
         <v>270</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="7"/>
     </row>
     <row r="101" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -4110,7 +4525,7 @@
       <c r="C102" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -4121,111 +4536,111 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
+      <c r="A103" s="7"/>
       <c r="B103" t="s">
         <v>272</v>
       </c>
       <c r="C103" t="s">
         <v>273</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
+      <c r="A104" s="7"/>
       <c r="B104" t="s">
         <v>274</v>
       </c>
       <c r="C104" t="s">
         <v>275</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="6"/>
+      <c r="A105" s="7"/>
       <c r="B105" t="s">
         <v>276</v>
       </c>
       <c r="C105" t="s">
         <v>277</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="7"/>
       <c r="E105" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
+      <c r="A106" s="7"/>
       <c r="B106" t="s">
         <v>279</v>
       </c>
       <c r="C106" t="s">
         <v>280</v>
       </c>
-      <c r="D106" s="6"/>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
+      <c r="A108" s="7"/>
       <c r="B108" t="s">
         <v>283</v>
       </c>
       <c r="C108" t="s">
         <v>282</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
+      <c r="A109" s="7"/>
       <c r="B109" t="s">
         <v>284</v>
       </c>
       <c r="C109" t="s">
         <v>285</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
+      <c r="A110" s="7"/>
       <c r="B110" t="s">
         <v>286</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
+      <c r="A111" s="7"/>
       <c r="B111" t="s">
         <v>287</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
+      <c r="A112" s="7"/>
       <c r="B112" t="s">
         <v>289</v>
       </c>
       <c r="C112" t="s">
         <v>290</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
+      <c r="A113" s="7"/>
       <c r="B113" t="s">
         <v>292</v>
       </c>
       <c r="C113" t="s">
         <v>291</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4241,15 +4656,15 @@
     <mergeCell ref="A51:F51"/>
     <mergeCell ref="A52:A64"/>
     <mergeCell ref="D52:D64"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="D2:D14"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="D36:D46"/>
     <mergeCell ref="A36:A46"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="D20:D31"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="D2:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4260,24 +4675,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C995DC-257E-4F84-9AEA-BCFCD25850D8}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A123" sqref="A123:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4286,7 +4701,7 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4297,123 +4712,123 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" t="s">
         <v>295</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" t="s">
         <v>296</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" t="s">
         <v>298</v>
       </c>
       <c r="C7" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>300</v>
       </c>
       <c r="C8" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>302</v>
       </c>
       <c r="C9" t="s">
         <v>301</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>304</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>307</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" t="s">
         <v>309</v>
       </c>
       <c r="C15" t="s">
         <v>310</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -4422,7 +4837,7 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -4433,58 +4848,58 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>312</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="7"/>
       <c r="E23" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" t="s">
         <v>316</v>
       </c>
       <c r="C24" t="s">
         <v>317</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" t="s">
         <v>318</v>
       </c>
       <c r="C25" t="s">
         <v>319</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="7"/>
       <c r="B26" t="s">
         <v>320</v>
       </c>
       <c r="C26" t="s">
         <v>321</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -4512,17 +4927,17 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4531,7 +4946,7 @@
       <c r="C34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -4542,76 +4957,76 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
+      <c r="A35" s="7"/>
       <c r="B35" t="s">
         <v>323</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
+      <c r="A36" s="7"/>
       <c r="B36" t="s">
         <v>324</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
+      <c r="A37" s="7"/>
       <c r="B37" t="s">
         <v>325</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>326</v>
       </c>
       <c r="C38" t="s">
         <v>327</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>328</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
+      <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>329</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
+      <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>330</v>
       </c>
       <c r="C41" t="s">
         <v>331</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
+      <c r="A42" s="7"/>
       <c r="B42" t="s">
         <v>332</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
+      <c r="A43" s="7"/>
       <c r="B43" t="s">
         <v>333</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="7"/>
       <c r="E43" t="s">
         <v>335</v>
       </c>
@@ -4620,21 +5035,21 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
+      <c r="A44" s="7"/>
       <c r="B44" t="s">
         <v>336</v>
       </c>
       <c r="C44" t="s">
         <v>337</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
+      <c r="A45" s="7"/>
       <c r="B45" t="s">
         <v>338</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
@@ -4645,17 +5060,17 @@
       <c r="D47" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4664,7 +5079,7 @@
       <c r="C51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4675,119 +5090,119 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
+      <c r="A52" s="7"/>
       <c r="B52" t="s">
         <v>340</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
+      <c r="A53" s="7"/>
       <c r="B53" t="s">
         <v>341</v>
       </c>
       <c r="C53" t="s">
         <v>342</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
+      <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
+      <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>344</v>
       </c>
       <c r="C55" t="s">
         <v>345</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
+      <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>346</v>
       </c>
       <c r="C56" t="s">
         <v>347</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
+      <c r="A57" s="7"/>
       <c r="B57" t="s">
         <v>348</v>
       </c>
       <c r="C57" t="s">
         <v>349</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6"/>
+      <c r="A58" s="7"/>
       <c r="B58" t="s">
         <v>350</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
+      <c r="A59" s="7"/>
       <c r="B59" t="s">
         <v>351</v>
       </c>
       <c r="C59" t="s">
         <v>352</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
+      <c r="A60" s="7"/>
       <c r="B60" t="s">
         <v>353</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
+      <c r="A61" s="7"/>
       <c r="B61" t="s">
         <v>355</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
+      <c r="A62" s="7"/>
       <c r="B62" t="s">
         <v>356</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
+      <c r="A63" s="7"/>
       <c r="B63" t="s">
         <v>357</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
     </row>
     <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -4796,7 +5211,7 @@
       <c r="C69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4807,150 +5222,150 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
+      <c r="A70" s="7"/>
       <c r="B70" t="s">
         <v>359</v>
       </c>
       <c r="C70" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
+      <c r="A71" s="7"/>
       <c r="B71" t="s">
         <v>361</v>
       </c>
       <c r="C71" t="s">
         <v>362</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
+      <c r="A72" s="7"/>
       <c r="B72" t="s">
         <v>363</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
+      <c r="A73" s="7"/>
       <c r="B73" t="s">
         <v>364</v>
       </c>
       <c r="C73" t="s">
         <v>365</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
+      <c r="A74" s="7"/>
       <c r="B74" t="s">
         <v>366</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
+      <c r="A75" s="7"/>
       <c r="B75" t="s">
         <v>367</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6"/>
+      <c r="A76" s="7"/>
       <c r="B76" t="s">
         <v>368</v>
       </c>
       <c r="C76" t="s">
         <v>369</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
+      <c r="A77" s="7"/>
       <c r="B77" t="s">
         <v>370</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
+      <c r="A78" s="7"/>
       <c r="B78" t="s">
         <v>371</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
+      <c r="A79" s="7"/>
       <c r="B79" t="s">
         <v>372</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
+      <c r="A80" s="7"/>
       <c r="B80" t="s">
         <v>373</v>
       </c>
       <c r="C80" t="s">
         <v>374</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
+      <c r="A81" s="7"/>
       <c r="B81" t="s">
         <v>375</v>
       </c>
       <c r="C81" t="s">
         <v>376</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
+      <c r="A82" s="7"/>
       <c r="B82" t="s">
         <v>377</v>
       </c>
       <c r="C82" t="s">
         <v>378</v>
       </c>
-      <c r="D82" s="6"/>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="6"/>
+      <c r="A83" s="7"/>
       <c r="B83" t="s">
         <v>379</v>
       </c>
       <c r="C83" t="s">
         <v>380</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
+      <c r="A84" s="7"/>
       <c r="B84" t="s">
         <v>381</v>
       </c>
       <c r="C84" t="s">
         <v>382</v>
       </c>
-      <c r="D84" s="6"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="89" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -4959,7 +5374,7 @@
       <c r="C90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4970,84 +5385,84 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
+      <c r="A91" s="7"/>
       <c r="B91" t="s">
         <v>386</v>
       </c>
       <c r="C91" t="s">
         <v>387</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
+      <c r="A92" s="7"/>
       <c r="B92" t="s">
         <v>384</v>
       </c>
       <c r="C92" t="s">
         <v>385</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
+      <c r="A93" s="7"/>
       <c r="B93" t="s">
         <v>388</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
+      <c r="A94" s="7"/>
       <c r="B94" t="s">
         <v>389</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="7"/>
     </row>
     <row r="95" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="6"/>
+      <c r="A95" s="7"/>
       <c r="B95" t="s">
         <v>390</v>
       </c>
       <c r="C95" t="s">
         <v>391</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6"/>
+      <c r="A96" s="7"/>
       <c r="B96" t="s">
         <v>392</v>
       </c>
       <c r="C96" t="s">
         <v>393</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="7"/>
       <c r="E96" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="6"/>
+      <c r="A97" s="7"/>
       <c r="B97" t="s">
         <v>394</v>
       </c>
       <c r="C97" t="s">
         <v>395</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="7"/>
       <c r="E97" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="6"/>
+      <c r="A98" s="7"/>
       <c r="B98" t="s">
         <v>399</v>
       </c>
       <c r="C98" t="s">
         <v>400</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="7"/>
       <c r="E98" t="s">
         <v>397</v>
       </c>
@@ -5056,19 +5471,19 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="6"/>
+      <c r="A99" s="7"/>
       <c r="B99" t="s">
         <v>401</v>
       </c>
       <c r="C99" s="2"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6"/>
+      <c r="A100" s="7"/>
       <c r="B100" t="s">
         <v>402</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
@@ -5079,17 +5494,17 @@
       <c r="D102" s="4"/>
     </row>
     <row r="105" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -5098,7 +5513,7 @@
       <c r="C106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -5109,88 +5524,88 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
+      <c r="A107" s="7"/>
       <c r="B107" t="s">
         <v>404</v>
       </c>
       <c r="C107" t="s">
         <v>405</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
+      <c r="A108" s="7"/>
       <c r="B108" t="s">
         <v>406</v>
       </c>
       <c r="C108" t="s">
         <v>407</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
+      <c r="A109" s="7"/>
       <c r="B109" t="s">
         <v>408</v>
       </c>
       <c r="C109" t="s">
         <v>409</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
+      <c r="A110" s="7"/>
       <c r="B110" t="s">
         <v>410</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="7"/>
     </row>
     <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
+      <c r="A111" s="7"/>
       <c r="B111" t="s">
         <v>411</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
+      <c r="A112" s="7"/>
       <c r="B112" t="s">
         <v>412</v>
       </c>
       <c r="C112" t="s">
         <v>413</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="7"/>
     </row>
     <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
+      <c r="A113" s="7"/>
       <c r="B113" t="s">
         <v>414</v>
       </c>
       <c r="C113" t="s">
         <v>415</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="6"/>
+      <c r="A114" s="7"/>
       <c r="B114" t="s">
         <v>416</v>
       </c>
       <c r="C114" t="s">
         <v>417</v>
       </c>
-      <c r="D114" s="6"/>
+      <c r="D114" s="7"/>
     </row>
     <row r="115" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
+      <c r="A115" s="7"/>
       <c r="B115" t="s">
         <v>418</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="7"/>
       <c r="E115" t="s">
         <v>420</v>
       </c>
@@ -5199,34 +5614,34 @@
       </c>
     </row>
     <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
+      <c r="A116" s="7"/>
       <c r="B116" t="s">
         <v>422</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
+      <c r="A117" s="7"/>
       <c r="B117" t="s">
         <v>423</v>
       </c>
       <c r="C117" t="s">
         <v>424</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="7"/>
     </row>
     <row r="123" spans="1:6" ht="20" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5235,7 +5650,7 @@
       <c r="C124" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -5246,100 +5661,100 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
+      <c r="A125" s="7"/>
       <c r="B125" t="s">
         <v>426</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="7"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
+      <c r="A126" s="7"/>
       <c r="B126" t="s">
         <v>427</v>
       </c>
       <c r="C126" t="s">
         <v>428</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="7"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
+      <c r="A127" s="7"/>
       <c r="B127" t="s">
         <v>429</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="7"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
+      <c r="A128" s="7"/>
       <c r="B128" t="s">
         <v>430</v>
       </c>
       <c r="C128" t="s">
         <v>431</v>
       </c>
-      <c r="D128" s="6"/>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
+      <c r="A129" s="7"/>
       <c r="B129" t="s">
         <v>432</v>
       </c>
       <c r="C129" t="s">
         <v>433</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="6"/>
+      <c r="A130" s="7"/>
       <c r="B130" t="s">
         <v>434</v>
       </c>
       <c r="C130" t="s">
         <v>435</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="6"/>
+      <c r="A131" s="7"/>
       <c r="B131" t="s">
         <v>436</v>
       </c>
       <c r="C131" t="s">
         <v>437</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
+      <c r="A132" s="7"/>
       <c r="B132" t="s">
         <v>438</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
+      <c r="A133" s="7"/>
       <c r="B133" t="s">
         <v>439</v>
       </c>
       <c r="C133" s="2"/>
-      <c r="D133" s="6"/>
+      <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
+      <c r="A134" s="7"/>
       <c r="B134" t="s">
         <v>440</v>
       </c>
       <c r="C134" t="s">
         <v>258</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="7"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
+      <c r="A135" s="7"/>
       <c r="B135" t="s">
         <v>441</v>
       </c>
-      <c r="D135" s="6"/>
+      <c r="D135" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -5371,4 +5786,663 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C56071-D7D0-4931-A670-5F93AE3D9136}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" t="s">
+        <v>447</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
+        <v>453</v>
+      </c>
+      <c r="C14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" t="s">
+        <v>456</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
+        <v>458</v>
+      </c>
+      <c r="C17" t="s">
+        <v>459</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C18" t="s">
+        <v>461</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" t="s">
+        <v>463</v>
+      </c>
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" t="s">
+        <v>466</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" t="s">
+        <v>469</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="D24:D30"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="D9:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FEE772-1296-4F7B-819C-9CBC8562F754}">
+  <dimension ref="A2:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="2" max="2" width="24.9140625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>502</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>497</v>
+      </c>
+      <c r="C22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>504</v>
+      </c>
+      <c r="C26" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>507</v>
+      </c>
+      <c r="C28" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>455</v>
+      </c>
+      <c r="C30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>510</v>
+      </c>
+      <c r="C31" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>512</v>
+      </c>
+      <c r="C32" t="s">
+        <v>513</v>
+      </c>
+      <c r="D32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>515</v>
+      </c>
+      <c r="C34" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>518</v>
+      </c>
+      <c r="C38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>522</v>
+      </c>
+      <c r="C42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C44" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>526</v>
+      </c>
+      <c r="C45" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>531</v>
+      </c>
+      <c r="C49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>533</v>
+      </c>
+      <c r="C50" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>536</v>
+      </c>
+      <c r="C52" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>539</v>
+      </c>
+      <c r="C53" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>541</v>
+      </c>
+      <c r="C54" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>543</v>
+      </c>
+      <c r="C55" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
+++ b/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF91053\Documents\Gavin_OBS\Gavin_OBS\英语\Alphabet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B94A4F-7870-44B4-8A7C-139035FDD17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE5DC1-E4DD-4321-8939-C77B716CBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="589">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1912,10 +1913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zipper</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2215,6 +2212,186 @@
   </si>
   <si>
     <t>咸味调味品混入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barbeque sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧烤酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abrupt halt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>names of some animals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wild animals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alligator / crocodile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leopard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gazelle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羚羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you married？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配偶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divorced</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>widowed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧偶的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>married</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The letter A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a baker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A New House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handyman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勤杂工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use a hammer to fix the roof</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scissors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>candle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paper clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲别针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梳子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2295,7 +2472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2319,6 +2496,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5792,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C56071-D7D0-4931-A670-5F93AE3D9136}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6028,24 +6208,24 @@
         <v>467</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
+        <v>469</v>
+      </c>
+      <c r="C30" t="s">
         <v>470</v>
-      </c>
-      <c r="C30" t="s">
-        <v>471</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -6080,10 +6260,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4FEE772-1296-4F7B-819C-9CBC8562F754}">
-  <dimension ref="A2:D56"/>
+  <dimension ref="A2:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6096,31 +6276,31 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -6133,135 +6313,135 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C9" t="s">
         <v>484</v>
-      </c>
-      <c r="C9" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" t="s">
         <v>493</v>
-      </c>
-      <c r="C20" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
+        <v>494</v>
+      </c>
+      <c r="C21" t="s">
         <v>495</v>
-      </c>
-      <c r="C21" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" t="s">
         <v>497</v>
-      </c>
-      <c r="C22" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C27" t="s">
         <v>505</v>
-      </c>
-      <c r="C27" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>506</v>
+      </c>
+      <c r="C28" t="s">
         <v>507</v>
-      </c>
-      <c r="C28" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -6274,29 +6454,29 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C31" t="s">
         <v>510</v>
-      </c>
-      <c r="C31" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" t="s">
         <v>512</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>513</v>
-      </c>
-      <c r="D32" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>514</v>
+      </c>
+      <c r="C34" t="s">
         <v>515</v>
-      </c>
-      <c r="C34" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -6314,20 +6494,20 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
+        <v>517</v>
+      </c>
+      <c r="C38" t="s">
         <v>518</v>
-      </c>
-      <c r="C38" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -6337,100 +6517,100 @@
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>521</v>
+      </c>
+      <c r="C42" t="s">
         <v>522</v>
-      </c>
-      <c r="C42" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C44" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
+        <v>525</v>
+      </c>
+      <c r="C45" t="s">
         <v>526</v>
-      </c>
-      <c r="C45" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
+        <v>527</v>
+      </c>
+      <c r="C46" t="s">
         <v>528</v>
-      </c>
-      <c r="C46" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
+        <v>530</v>
+      </c>
+      <c r="C49" t="s">
         <v>531</v>
-      </c>
-      <c r="C49" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
+        <v>532</v>
+      </c>
+      <c r="C50" t="s">
         <v>533</v>
-      </c>
-      <c r="C50" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
+        <v>535</v>
+      </c>
+      <c r="C52" t="s">
         <v>536</v>
-      </c>
-      <c r="C52" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
+        <v>538</v>
+      </c>
+      <c r="C53" t="s">
         <v>539</v>
-      </c>
-      <c r="C53" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
+        <v>540</v>
+      </c>
+      <c r="C54" t="s">
         <v>541</v>
-      </c>
-      <c r="C54" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
+        <v>542</v>
+      </c>
+      <c r="C55" t="s">
         <v>543</v>
-      </c>
-      <c r="C55" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
@@ -6439,10 +6619,266 @@
       </c>
       <c r="C56" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>545</v>
+      </c>
+      <c r="C58" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>547</v>
+      </c>
+      <c r="C60" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D9C12A-76A3-4B46-AF97-1F9FEED44AA1}">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.58203125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>552</v>
+      </c>
+      <c r="C10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+      <c r="C19" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>562</v>
+      </c>
+      <c r="C22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>566</v>
+      </c>
+      <c r="C28" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>570</v>
+      </c>
+      <c r="C34" t="s">
+        <v>571</v>
+      </c>
+      <c r="D34" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>572</v>
+      </c>
+      <c r="C35" t="s">
+        <v>573</v>
+      </c>
+      <c r="D35" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>574</v>
+      </c>
+      <c r="D36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>575</v>
+      </c>
+      <c r="C37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>583</v>
+      </c>
+      <c r="C45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>585</v>
+      </c>
+      <c r="C47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B38:D38"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
+++ b/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF91053\Documents\Gavin_OBS\Gavin_OBS\英语\Alphabet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE5DC1-E4DD-4321-8939-C77B716CBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F836A74-70A8-43D2-A6E8-0A1C90A938F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="668">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2392,6 +2393,347 @@
   </si>
   <si>
     <t>梳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breakfast   2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have two eggs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a bowl of cereal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a glass of orange juice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a slice of toast.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a strip of bacon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a piece of ham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a plate with a pastry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pastry  点心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a cup of coffee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a glass of milk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a dish of fruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a slice of bread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a cup of yogurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bunch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of grapes</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a wedge of cantaloupe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantaloupe 哈密瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a slice of orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fruit salad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a big bowl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peel、cut the orange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain the blueberry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>papaya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core the apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kiwi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantaloupe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoop the seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mango</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peel：剥皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drain：滤干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猕猴桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖出种子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem：柄、茎部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bananas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the names of some of the clothes we wear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gloves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sweater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>socks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shirt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>belt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accessories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件、配饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sneaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scarve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>earrings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6645,16 +6987,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D9C12A-76A3-4B46-AF97-1F9FEED44AA1}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.58203125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6871,6 +7214,191 @@
       </c>
       <c r="C47" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>596</v>
+      </c>
+      <c r="C58" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>604</v>
+      </c>
+      <c r="C65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>609</v>
+      </c>
+      <c r="C73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>610</v>
+      </c>
+      <c r="C74" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>611</v>
+      </c>
+      <c r="C75" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>612</v>
+      </c>
+      <c r="C76" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>613</v>
+      </c>
+      <c r="C77" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>615</v>
+      </c>
+      <c r="C79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>625</v>
+      </c>
+      <c r="C84" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6881,4 +7409,215 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393AF72-B4E8-4F23-93D4-3ED00FB677F0}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.75" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>636</v>
+      </c>
+      <c r="C9" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>639</v>
+      </c>
+      <c r="C13" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>648</v>
+      </c>
+      <c r="C20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C24" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C34" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>660</v>
+      </c>
+      <c r="C35" t="s">
+        <v>661</v>
+      </c>
+      <c r="D35" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
+++ b/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF91053\Documents\Gavin_OBS\Gavin_OBS\英语\Alphabet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F836A74-70A8-43D2-A6E8-0A1C90A938F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF280B1-0A16-4BE1-81D6-0A4866E91D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="722">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2734,6 +2734,222 @@
   </si>
   <si>
     <t>purple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>places around town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grocery store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品杂货店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groceries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoe store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>library</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>park</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>police station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire station</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parking lot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停车场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>policeman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>housewife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭主妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the countries around the world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>England</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the United States</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>South America</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Europe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japanese Kimono</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本和服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terra cotta warriors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵马俑？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perfume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pasta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">buses have two stories </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层巴士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double-decker bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bobby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警察</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4207,12 +4423,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:A127"/>
-    <mergeCell ref="D116:D127"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="D133:D143"/>
-    <mergeCell ref="A133:A143"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="D99:D110"/>
     <mergeCell ref="A99:A110"/>
@@ -4226,6 +4436,12 @@
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A80:A92"/>
     <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="D116:D127"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="D133:D143"/>
+    <mergeCell ref="A133:A143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5166,18 +5382,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="D86:D96"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A113"/>
-    <mergeCell ref="D102:D113"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="D70:D80"/>
-    <mergeCell ref="A70:A80"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:A64"/>
-    <mergeCell ref="D52:D64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="D2:D14"/>
@@ -5187,6 +5391,18 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="D20:D31"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="D70:D80"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="D52:D64"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="D86:D96"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A113"/>
+    <mergeCell ref="D102:D113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6280,14 +6496,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A124:A135"/>
-    <mergeCell ref="D124:D135"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="D90:D100"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A106:A117"/>
-    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A69:A84"/>
     <mergeCell ref="D69:D84"/>
@@ -6297,13 +6512,14 @@
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A51:A63"/>
     <mergeCell ref="D51:D63"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A124:A135"/>
+    <mergeCell ref="D124:D135"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="D90:D100"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A106:A117"/>
+    <mergeCell ref="D106:D117"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7413,17 +7629,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393AF72-B4E8-4F23-93D4-3ED00FB677F0}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.75" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9.9140625" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="13.9140625" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
@@ -7586,12 +7803,12 @@
         <v>665</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>658</v>
       </c>
@@ -7599,7 +7816,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>660</v>
       </c>
@@ -7610,9 +7827,251 @@
         <v>666</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>664</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>669</v>
+      </c>
+      <c r="C41" t="s">
+        <v>670</v>
+      </c>
+      <c r="D41" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>672</v>
+      </c>
+      <c r="D42" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>673</v>
+      </c>
+      <c r="D43" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>685</v>
+      </c>
+      <c r="C53" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>691</v>
+      </c>
+      <c r="C59" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>693</v>
+      </c>
+      <c r="C60" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>703</v>
+      </c>
+      <c r="C72" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>709</v>
+      </c>
+      <c r="C77" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>711</v>
+      </c>
+      <c r="C78" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>713</v>
+      </c>
+      <c r="C79" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>715</v>
+      </c>
+      <c r="C80" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>717</v>
+      </c>
+      <c r="C81" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>720</v>
+      </c>
+      <c r="C83" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
+++ b/Gavin_OBS/英语/Alphabet/A词汇表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NXF91053\Documents\Gavin_OBS\Gavin_OBS\英语\Alphabet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF280B1-0A16-4BE1-81D6-0A4866E91D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0116D4D0-C05C-44DF-8DEB-C8AB5BD87686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{6D76B9EA-1B1F-447C-BB05-A4DDD04CA0AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="736">
   <si>
     <t>单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2950,6 +2951,62 @@
   </si>
   <si>
     <t>警察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>are you a doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hospital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>farmer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cleaner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>painter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hurt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healthy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>names of parts of our body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoulders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4423,6 +4480,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A116:A127"/>
+    <mergeCell ref="D116:D127"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="D133:D143"/>
+    <mergeCell ref="A133:A143"/>
     <mergeCell ref="A98:F98"/>
     <mergeCell ref="D99:D110"/>
     <mergeCell ref="A99:A110"/>
@@ -4436,12 +4499,6 @@
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="A80:A92"/>
     <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A116:A127"/>
-    <mergeCell ref="D116:D127"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="D133:D143"/>
-    <mergeCell ref="A133:A143"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5382,6 +5439,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:A96"/>
+    <mergeCell ref="D86:D96"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:A113"/>
+    <mergeCell ref="D102:D113"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="D70:D80"/>
+    <mergeCell ref="A70:A80"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:A64"/>
+    <mergeCell ref="D52:D64"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A14"/>
     <mergeCell ref="D2:D14"/>
@@ -5391,18 +5460,6 @@
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="D20:D31"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="D70:D80"/>
-    <mergeCell ref="A70:A80"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:A64"/>
-    <mergeCell ref="D52:D64"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A86:A96"/>
-    <mergeCell ref="D86:D96"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A102:A113"/>
-    <mergeCell ref="D102:D113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6496,13 +6553,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A124:A135"/>
+    <mergeCell ref="D124:D135"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="D90:D100"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="A106:A117"/>
+    <mergeCell ref="D106:D117"/>
     <mergeCell ref="A68:F68"/>
     <mergeCell ref="A69:A84"/>
     <mergeCell ref="D69:D84"/>
@@ -6512,14 +6570,13 @@
     <mergeCell ref="A50:F50"/>
     <mergeCell ref="A51:A63"/>
     <mergeCell ref="D51:D63"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="A124:A135"/>
-    <mergeCell ref="D124:D135"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="D90:D100"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A106:A117"/>
-    <mergeCell ref="D106:D117"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7631,7 +7688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8393AF72-B4E8-4F23-93D4-3ED00FB677F0}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -8079,4 +8136,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9500599E-60E8-463B-994C-9C91EE191784}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>735</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>